--- a/excel_with_subclasses/without_zeros/canal_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/canal_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q459297</t>
@@ -686,9 +686,6 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="D2">
-        <v>13593</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -700,9 +697,6 @@
       <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3">
-        <v>2219</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -714,9 +708,6 @@
       <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4">
-        <v>1147</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -728,9 +719,6 @@
       <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="D5">
-        <v>224</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -742,9 +730,6 @@
       <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="D6">
-        <v>161</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -756,9 +741,6 @@
       <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -770,9 +752,6 @@
       <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="D8">
-        <v>116</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -784,9 +763,6 @@
       <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="D9">
-        <v>110</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -798,9 +774,6 @@
       <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="D10">
-        <v>95</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -812,9 +785,6 @@
       <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="D11">
-        <v>56</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -826,9 +796,6 @@
       <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="D12">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -840,9 +807,6 @@
       <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -854,9 +818,6 @@
       <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -868,9 +829,6 @@
       <c r="C15" t="s">
         <v>83</v>
       </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -882,11 +840,8 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -896,11 +851,8 @@
       <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -910,11 +862,8 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -924,11 +873,8 @@
       <c r="C19" t="s">
         <v>83</v>
       </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -938,11 +884,8 @@
       <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -952,11 +895,8 @@
       <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -966,11 +906,8 @@
       <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -980,11 +917,8 @@
       <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -994,11 +928,8 @@
       <c r="C24" t="s">
         <v>91</v>
       </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1008,11 +939,8 @@
       <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1022,11 +950,8 @@
       <c r="C26" t="s">
         <v>93</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1036,11 +961,8 @@
       <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1050,11 +972,8 @@
       <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1064,11 +983,8 @@
       <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1078,11 +994,8 @@
       <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1092,11 +1005,8 @@
       <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1106,11 +1016,8 @@
       <c r="C32" t="s">
         <v>83</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1120,11 +1027,8 @@
       <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1134,11 +1038,8 @@
       <c r="C34" t="s">
         <v>84</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1148,11 +1049,8 @@
       <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1162,11 +1060,8 @@
       <c r="C36" t="s">
         <v>83</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1176,11 +1071,8 @@
       <c r="C37" t="s">
         <v>83</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1190,11 +1082,8 @@
       <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1204,11 +1093,8 @@
       <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1218,11 +1104,8 @@
       <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1231,9 +1114,6 @@
       </c>
       <c r="C41" t="s">
         <v>88</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
